--- a/database/dd.xlsx
+++ b/database/dd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sokratis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sokratis\Dropbox\Public\LKLProjects\flip\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="68">
   <si>
     <t>Relation Name</t>
   </si>
@@ -116,9 +116,6 @@
     <t>unique (concept_id, task_id)</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>check (action in ('S','F'))</t>
   </si>
   <si>
-    <t>check (state in ('A','I'))</t>
-  </si>
-  <si>
     <t>check (support_provided &gt;= 0)</t>
   </si>
   <si>
@@ -195,6 +189,45 @@
   </si>
   <si>
     <t>default sysdate, check(datetime in session)</t>
+  </si>
+  <si>
+    <t>attempt_id</t>
+  </si>
+  <si>
+    <t>code_extract</t>
+  </si>
+  <si>
+    <t>misconceptions_unclassified</t>
+  </si>
+  <si>
+    <t>check (state in ('D','T',A'))</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>tester_id</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>check (result in ('P','F'))</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>misconception_identified_id</t>
+  </si>
+  <si>
+    <t>check (state in ('A','I','M','H','S'))</t>
   </si>
 </sst>
 </file>
@@ -299,15 +332,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -319,6 +343,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,18 +633,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:I78"/>
+  <dimension ref="C4:I95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J79"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -664,8 +697,8 @@
       <c r="I6" s="3"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="6" t="s">
-        <v>30</v>
+      <c r="C8" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>7</v>
@@ -683,9 +716,9 @@
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="7"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
@@ -698,11 +731,11 @@
         <v>10</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
@@ -715,11 +748,11 @@
         <v>10</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="8"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
@@ -736,500 +769,519 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="10"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="C13" s="12"/>
       <c r="D13" s="4" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C14" s="7"/>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="11"/>
+      <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="7"/>
-      <c r="D15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="5" t="s">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="11"/>
+      <c r="D17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F17" s="5">
         <v>1</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="8"/>
-      <c r="D16" s="4" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="12"/>
+      <c r="D18" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="3:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="3:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="7"/>
-      <c r="D19" s="4" t="s">
+      <c r="H20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="11"/>
+      <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F21" s="5">
         <v>20</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="7"/>
-      <c r="D20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="5">
-        <v>100</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="7"/>
-      <c r="D21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="11"/>
+      <c r="D22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5">
+        <v>100</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="11"/>
+      <c r="D23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="8"/>
-      <c r="D22" s="4" t="s">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="12"/>
+      <c r="D24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
+      <c r="E24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="6" t="s">
+      <c r="H24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="7"/>
-      <c r="D25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="8"/>
-      <c r="D26" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="11"/>
+      <c r="D27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="8"/>
+      <c r="H27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="C28" s="12"/>
       <c r="D28" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="7"/>
-      <c r="D29" s="4" t="s">
+      <c r="H30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="11"/>
+      <c r="D31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F31" s="3">
         <v>20</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="7"/>
-      <c r="D30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="3">
-        <v>100</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="8"/>
-      <c r="D31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="11"/>
+      <c r="D32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="12"/>
+      <c r="D33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="6" t="s">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="11"/>
+      <c r="D36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="3">
+        <v>20</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="12"/>
+      <c r="D37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="3">
+        <v>20</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="11"/>
+      <c r="D40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="5">
+        <v>20</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="12"/>
+      <c r="D41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="7"/>
-      <c r="D34" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="H43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="11"/>
+      <c r="D44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="11"/>
+      <c r="D45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="8"/>
-      <c r="D35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="3">
-        <v>20</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="7"/>
-      <c r="D38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="5">
-        <v>20</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="8"/>
-      <c r="D39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="3">
-        <v>100</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="7"/>
-      <c r="D42" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="7"/>
-      <c r="D43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="5" t="s">
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="8"/>
-      <c r="D44" s="4" t="s">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="11"/>
+      <c r="D46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="12"/>
+      <c r="D47" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="7"/>
-      <c r="D47" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
@@ -1245,120 +1297,129 @@
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C48" s="7"/>
-      <c r="D48" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="5"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="7"/>
+      <c r="C49" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="D49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="11"/>
+      <c r="D50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="7"/>
-      <c r="D50" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="5">
-        <v>2</v>
-      </c>
+      <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="8"/>
-      <c r="D51" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="3">
+      <c r="C51" s="11"/>
+      <c r="D51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="11"/>
+      <c r="D52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="11"/>
+      <c r="D53" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="5">
+        <v>4000</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="11"/>
+      <c r="D54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="5">
         <v>1</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="7"/>
-      <c r="D54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="5">
-        <v>20</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I54" s="5"/>
+      <c r="I54" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="4" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5" t="s">
@@ -1366,184 +1427,199 @@
       </c>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="8"/>
-      <c r="D56" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3" t="s">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C58" s="11"/>
+      <c r="D58" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="10"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="6" t="s">
+      <c r="H58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C59" s="11"/>
+      <c r="D59" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="7"/>
-      <c r="D59" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E59" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="5">
+        <v>8</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C60" s="11"/>
+      <c r="D60" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="8"/>
-      <c r="D60" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E60" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="5">
-        <v>100</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I60" s="5"/>
     </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C61" s="11"/>
+      <c r="D61" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="5">
+        <v>2</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>7</v>
+      <c r="C62" s="11"/>
+      <c r="D62" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F62" s="5">
+        <v>4000</v>
+      </c>
+      <c r="G62" s="5"/>
       <c r="H62" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I62" s="5"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="7"/>
-      <c r="D63" s="4" t="s">
+      <c r="C63" s="12"/>
+      <c r="D63" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="5"/>
+      <c r="E63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C64" s="7"/>
-      <c r="D64" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5" t="s">
+      <c r="D64" s="9"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C65" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C66" s="11"/>
+      <c r="D66" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64" s="5"/>
-    </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="8"/>
-      <c r="D65" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="5">
-        <v>100</v>
-      </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I65" s="5"/>
+      <c r="H66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="5"/>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="C67" s="11"/>
       <c r="D67" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F67" s="5"/>
-      <c r="G67" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G67" s="5"/>
       <c r="H67" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I67" s="5"/>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="7"/>
-      <c r="D68" s="4" t="s">
-        <v>17</v>
+      <c r="C68" s="12"/>
+      <c r="D68" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F68" s="5">
-        <v>20</v>
+        <v>4000</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5" t="s">
@@ -1551,122 +1627,131 @@
       </c>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="8"/>
-      <c r="D69" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E69" s="5" t="s">
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C70" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C71" s="11"/>
+      <c r="D71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F71" s="5">
+        <v>20</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C72" s="11"/>
+      <c r="D72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="5">
         <v>100</v>
       </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69" s="5"/>
-    </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D71" s="4" t="s">
+      <c r="G72" s="5"/>
+      <c r="H72" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C73" s="12"/>
+      <c r="D73" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C74" s="7"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C75" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5" t="s">
+      <c r="E75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H71" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71" s="5"/>
-    </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C72" s="7"/>
-      <c r="D72" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" s="5"/>
-    </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C73" s="7"/>
-      <c r="D73" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I73" s="5"/>
-    </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C74" s="8"/>
-      <c r="D74" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E74" s="5" t="s">
+      <c r="H75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C76" s="11"/>
+      <c r="D76" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="5">
-        <v>100</v>
-      </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74" s="5"/>
-    </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C76" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F76" s="5">
+        <v>20</v>
+      </c>
+      <c r="G76" s="5"/>
       <c r="H76" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I76" s="5"/>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C77" s="7"/>
+      <c r="C77" s="12"/>
       <c r="D77" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F77" s="5">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5" t="s">
@@ -1674,42 +1759,273 @@
       </c>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C78" s="8"/>
-      <c r="D78" s="4" t="s">
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C79" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C80" s="11"/>
+      <c r="D80" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C81" s="11"/>
+      <c r="D81" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C82" s="12"/>
+      <c r="D82" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="5">
+        <v>100</v>
+      </c>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C84" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C85" s="11"/>
+      <c r="D85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="5">
+        <v>20</v>
+      </c>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C86" s="12"/>
+      <c r="D86" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="5">
+        <v>100</v>
+      </c>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C88" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C89" s="11"/>
+      <c r="D89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C90" s="11"/>
+      <c r="D90" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C91" s="12"/>
+      <c r="D91" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E91" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F91" s="5">
         <v>100</v>
       </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I78" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C93" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C94" s="11"/>
+      <c r="D94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="5">
+        <v>20</v>
+      </c>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C95" s="12"/>
+      <c r="D95" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="5">
+        <v>100</v>
+      </c>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C28:C31"/>
+  <mergeCells count="19">
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C57:C63"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="C49:C55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
